--- a/data/dataThongtinHD_case11.xlsx
+++ b/data/dataThongtinHD_case11.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Stt</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>10%</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>1C22TKA</t>
   </si>
 </sst>
 </file>
@@ -389,82 +395,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/dataThongtinHD_case11.xlsx
+++ b/data/dataThongtinHD_case11.xlsx
@@ -70,13 +70,13 @@
     <t>test lập hóa đơn</t>
   </si>
   <si>
-    <t>10%</t>
-  </si>
-  <si>
     <t>Serial</t>
   </si>
   <si>
     <t>1C22TKA</t>
+  </si>
+  <si>
+    <t>3.5%</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -428,7 +428,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -460,7 +460,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -478,7 +478,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/dataThongtinHD_case11.xlsx
+++ b/data/dataThongtinHD_case11.xlsx
@@ -73,10 +73,10 @@
     <t>Serial</t>
   </si>
   <si>
-    <t>1C22TKA</t>
-  </si>
-  <si>
     <t>3.5%</t>
+  </si>
+  <si>
+    <t>1C22TBB</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -460,7 +460,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -478,7 +478,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/dataThongtinHD_case11.xlsx
+++ b/data/dataThongtinHD_case11.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
